--- a/GestorReceitas/Dezembro/relatorioMensal_backup_dezembro_20250106_223615.xlsx
+++ b/GestorReceitas/Dezembro/relatorioMensal_backup_dezembro_20250106_223615.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Dezembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2382017A-2779-42AF-83CE-4ABB49E74963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4618A6E9-0FDC-432E-BB11-62C87CAF5ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="relatorioMensal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">relatorioMensal!$A$1:$P$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">relatorioMensal!$A$1:$R$145</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="456">
   <si>
     <t>Nome</t>
   </si>
@@ -1376,10 +1376,34 @@
     <t>pagou + 5€ CAF</t>
   </si>
   <si>
-    <t>pagou + 6€ CAF</t>
-  </si>
-  <si>
     <t>pagou +1€ CAF</t>
+  </si>
+  <si>
+    <t>Quota</t>
+  </si>
+  <si>
+    <t>pagou +2€ CAF</t>
+  </si>
+  <si>
+    <t>pagou +5€ CAF</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>já pagou em janeiro</t>
+  </si>
+  <si>
+    <t>não notificar</t>
+  </si>
+  <si>
+    <t>notificar pagamento ate 8</t>
+  </si>
+  <si>
+    <t>Notificar email falta de pagamento</t>
+  </si>
+  <si>
+    <t>Notificar email falta de pagamento com oferta da AP</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1432,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1421,8 +1445,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1445,11 +1475,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1457,578 +1498,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="289">
+  <dxfs count="178">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3209,32 +2702,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20:R142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3266,26 +2760,32 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="R1" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
@@ -3301,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
@@ -3313,25 +2813,27 @@
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2">
-        <v>17.5</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>-4</v>
+        <f>17.5-4</f>
+        <v>13.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
       </c>
       <c r="N2" s="3">
-        <f>L2 + K2   +  M2 - (G2 + I2 + J2)</f>
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <f>M2 + L2   +  N2 - (G2 + I2 + J2 + K2 + H2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
@@ -3365,21 +2867,24 @@
       <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f>L3 + K3   +  M3 - (G3 + I3 + J3+ H3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O66" si="0">M3 + L3   +  N3 - (G3 + I3 + J3 + K3 + H3)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>443</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -3412,20 +2917,23 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>7.5</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N6" si="0">L4 + K4   +  M4 - (G4 + I4 + J4+ H4)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -3458,23 +2966,26 @@
         <v>0</v>
       </c>
       <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>37.5</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
       <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -3509,22 +3020,25 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <f>115-15</f>
         <v>100</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>7.5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B7" t="s">
@@ -3550,27 +3064,29 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2">
-        <v>23.5</v>
-      </c>
-      <c r="M7" s="3">
-        <v>-4</v>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f>23.5-3-4</f>
+        <v>16.5</v>
       </c>
       <c r="N7" s="3">
-        <f>L7 + K7   +  M7 - (G7 + I7 + J7)</f>
-        <v>4.5</v>
-      </c>
-      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
@@ -3599,25 +3115,28 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <f>30-30</f>
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
-        <f t="shared" ref="N8:N13" si="1">L8 + K8   +  M8 - (G8 + I8 + J8+ H8)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
         <v>443</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
@@ -3646,24 +3165,27 @@
         <v>0</v>
       </c>
       <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <f>57.5-0.5-32-25</f>
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
         <v>443</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
@@ -3698,20 +3220,23 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>72.5</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3746,19 +3271,25 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
         <v>-7.5</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="R11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B12" t="s">
@@ -3792,21 +3323,24 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
         <v>443</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
@@ -3836,25 +3370,28 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <f>40-17.5</f>
         <v>22.5</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
       <c r="N13" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B14" t="s">
@@ -3882,24 +3419,26 @@
       <c r="J14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
+      <c r="K14" s="2"/>
       <c r="L14" s="2">
-        <v>23.5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-4</v>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <f>23.5+3-4</f>
+        <v>22.5</v>
       </c>
       <c r="N14" s="3">
-        <f>L14 + K14   +  M14 - (G14 + I14 + J14)</f>
-        <v>-3</v>
-      </c>
-      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
@@ -3932,21 +3471,24 @@
         <v>0</v>
       </c>
       <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <f>22.5-15</f>
         <v>7.5</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
-        <f t="shared" ref="N15:N19" si="2">L15 + K15   +  M15 - (G15 + I15 + J15+ H15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>64</v>
       </c>
@@ -3981,22 +3523,25 @@
         <v>0</v>
       </c>
       <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <f>65-15</f>
         <v>50</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>15</v>
       </c>
-      <c r="N16" s="3">
-        <f t="shared" si="2"/>
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B17" t="s">
@@ -4030,18 +3575,21 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>69</v>
       </c>
@@ -4071,21 +3619,24 @@
         <v>0</v>
       </c>
       <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
         <f>40-25-15</f>
         <v>0</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -4120,18 +3671,24 @@
       <c r="L19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4160,24 +3717,26 @@
       <c r="J20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
+      <c r="K20" s="2"/>
       <c r="L20" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <f>10.5-3</f>
+        <v>7.5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-6</v>
       </c>
-      <c r="N20" s="3">
-        <f>L20 + K20   +  M20 - (G20 + I20 + J20)</f>
-        <v>-3</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="O20" s="3">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="Q20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>78</v>
       </c>
@@ -4210,22 +3769,25 @@
         <v>0</v>
       </c>
       <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
         <f>129.5-20</f>
         <v>109.5</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <f t="shared" ref="N21:N23" si="3">L21 + K21   +  M21 - (G21 + I21 + J21+ H21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B22" t="s">
@@ -4259,21 +3821,24 @@
       <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>83</v>
+      </c>
+      <c r="R22" t="s">
         <v>443</v>
       </c>
-      <c r="P22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>84</v>
       </c>
@@ -4308,21 +3873,24 @@
         <v>0</v>
       </c>
       <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <f>152.5-15</f>
         <v>137.5</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -4348,25 +3916,29 @@
       <c r="J24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-37.5</v>
       </c>
-      <c r="N24" s="3">
-        <f>L24 + K24   +  M24 - (G24 + I24 + J24)</f>
+      <c r="O24" s="3">
+        <f t="shared" si="0"/>
         <v>-45</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="R24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B25" t="s">
@@ -4397,21 +3969,24 @@
       <c r="L25" s="2">
         <v>0</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" ref="N25:N32" si="4">L25 + K25   +  M25 - (G25 + I25 + J25+ H25)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>92</v>
+      </c>
+      <c r="R25" t="s">
         <v>443</v>
       </c>
-      <c r="P25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>93</v>
       </c>
@@ -4441,23 +4016,26 @@
         <v>22</v>
       </c>
       <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <v>22.5</v>
       </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>96</v>
       </c>
@@ -4492,21 +4070,24 @@
         <v>0</v>
       </c>
       <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
         <f>80-22.5+80</f>
         <v>137.5</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -4541,22 +4122,28 @@
         <v>0</v>
       </c>
       <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
         <f>97.5-15</f>
         <v>82.5</v>
       </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
       <c r="N28" s="3">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="R28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B29" t="s">
@@ -4590,21 +4177,24 @@
       <c r="L29" s="2">
         <v>0</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="2">
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>104</v>
+      </c>
+      <c r="R29" t="s">
         <v>443</v>
       </c>
-      <c r="P29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>105</v>
       </c>
@@ -4637,20 +4227,23 @@
         <v>0</v>
       </c>
       <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
         <v>7.5</v>
       </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
       <c r="N30" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>108</v>
       </c>
@@ -4682,23 +4275,26 @@
         <v>22</v>
       </c>
       <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
         <v>157.5</v>
       </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
+      <c r="M31" s="2">
         <v>0</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>111</v>
       </c>
@@ -4731,22 +4327,25 @@
         <v>0</v>
       </c>
       <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
         <f>80-57.5</f>
         <v>22.5</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B33" t="s">
@@ -4767,31 +4366,35 @@
       <c r="G33" s="2">
         <v>6</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>65</v>
+      </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
+      <c r="K33" s="2"/>
       <c r="L33" s="2">
-        <v>87</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-16</v>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <f>87-16</f>
+        <v>71</v>
       </c>
       <c r="N33" s="3">
-        <f>L33 + K33   +  M33 - (G33 + I33 + J33)</f>
-        <v>65</v>
-      </c>
-      <c r="P33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>116</v>
       </c>
@@ -4828,18 +4431,21 @@
       <c r="L34" s="2">
         <v>0</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
         <v>122.5</v>
       </c>
-      <c r="N34" s="3">
-        <f>L34 + K34   +  M34 - (G34 + I34 + J34+ H34)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="O34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -4865,26 +4471,27 @@
       <c r="J35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
+      <c r="K35" s="2"/>
       <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
         <f>70-45-25</f>
         <v>0</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45</v>
       </c>
-      <c r="N35" s="3">
-        <f>L35 + K35   +  M35 - (G35 + I35 + J35)</f>
+      <c r="O35" s="3">
+        <f t="shared" si="0"/>
         <v>-66.5</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B36" t="s">
@@ -4915,21 +4522,24 @@
       <c r="L36" s="2">
         <v>0</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" ref="N36:N37" si="5">L36 + K36   +  M36 - (G36 + I36 + J36+ H36)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>124</v>
+      </c>
+      <c r="R36" t="s">
         <v>443</v>
       </c>
-      <c r="P36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>125</v>
       </c>
@@ -4962,21 +4572,24 @@
         <v>0</v>
       </c>
       <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
         <f>22.5-15</f>
         <v>7.5</v>
       </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
       <c r="N37" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -5002,25 +4615,29 @@
       <c r="J38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
+      <c r="K38" s="2"/>
       <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
         <f>107.15-22.5-45-15-24.65</f>
         <v>0</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>-35.35</v>
       </c>
-      <c r="N38" s="3">
-        <f>L38 + K38   +  M38 - (G38 + I38 + J38)</f>
+      <c r="O38" s="3">
+        <f t="shared" si="0"/>
         <v>-56.85</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>131</v>
       </c>
@@ -5050,24 +4667,27 @@
         <v>4.5</v>
       </c>
       <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
         <v>6.5</v>
       </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <v>0</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" ref="N39:N45" si="6">L39 + K39   +  M39 - (G39 + I39 + J39+ H39)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B40" t="s">
@@ -5101,21 +4721,24 @@
       <c r="L40" s="2">
         <v>0</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <v>0</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>136</v>
+      </c>
+      <c r="R40" t="s">
         <v>443</v>
       </c>
-      <c r="P40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>137</v>
       </c>
@@ -5150,20 +4773,23 @@
         <v>0</v>
       </c>
       <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
         <v>47.5</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P41" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>140</v>
       </c>
@@ -5196,23 +4822,23 @@
         <v>0</v>
       </c>
       <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
         <v>32.5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
         <v>142</v>
       </c>
-      <c r="Q42" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>143</v>
       </c>
@@ -5242,23 +4868,26 @@
         <v>22</v>
       </c>
       <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
         <v>7.5</v>
       </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="2">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P43" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>146</v>
       </c>
@@ -5288,23 +4917,26 @@
         <v>0</v>
       </c>
       <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
         <v>2</v>
       </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="2">
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>149</v>
       </c>
@@ -5337,20 +4969,23 @@
         <v>0</v>
       </c>
       <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
         <v>7.5</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>152</v>
       </c>
@@ -5376,24 +5011,25 @@
       <c r="J46" s="2">
         <v>0</v>
       </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
+      <c r="K46" s="2"/>
       <c r="L46" s="2">
         <v>0</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>-12</v>
       </c>
-      <c r="N46" s="3">
-        <f>L46 + K46   +  M46 - (G46 + I46 + J46)</f>
+      <c r="O46" s="3">
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>155</v>
       </c>
@@ -5428,20 +5064,23 @@
         <v>0</v>
       </c>
       <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
         <v>86.5</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
-        <f t="shared" ref="N47:N50" si="7">L47 + K47   +  M47 - (G47 + I47 + J47+ H47)</f>
-        <v>0</v>
-      </c>
-      <c r="P47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>158</v>
       </c>
@@ -5476,18 +5115,21 @@
       <c r="L48" s="2">
         <v>0</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>90</v>
       </c>
-      <c r="N48" s="3">
-        <f t="shared" si="7"/>
+      <c r="O48" s="3">
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>161</v>
       </c>
@@ -5522,20 +5164,23 @@
         <v>0</v>
       </c>
       <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
         <v>100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45</v>
       </c>
-      <c r="N49" s="3">
-        <f t="shared" si="7"/>
+      <c r="O49" s="3">
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>164</v>
       </c>
@@ -5570,20 +5215,23 @@
         <v>0</v>
       </c>
       <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
         <v>102.5</v>
       </c>
-      <c r="M50" s="3">
-        <v>0</v>
-      </c>
       <c r="N50" s="3">
-        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -5605,32 +5253,39 @@
       <c r="G51" s="2">
         <v>25</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>40</v>
+      </c>
       <c r="I51" s="2">
         <v>0</v>
       </c>
       <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="2">
-        <v>90</v>
-      </c>
-      <c r="M51" s="3">
-        <v>-50</v>
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <f>90-50</f>
+        <v>40</v>
       </c>
       <c r="N51" s="3">
-        <f>L51 + K51   +  M51 - (G51 + I51 + J51)</f>
-        <v>15</v>
-      </c>
-      <c r="P51" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <f t="shared" si="0"/>
+        <v>-25</v>
+      </c>
+      <c r="Q51" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="R51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B52" t="s">
@@ -5664,22 +5319,25 @@
       <c r="L52" s="2">
         <v>0</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="2">
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" ref="N52:N60" si="8">L52 + K52   +  M52 - (G52 + I52 + J52+ H52)</f>
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>172</v>
+      </c>
+      <c r="R52" t="s">
         <v>443</v>
       </c>
-      <c r="P52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    </row>
+    <row r="53" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B53" t="s">
@@ -5708,25 +5366,28 @@
         <v>0</v>
       </c>
       <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
         <f>15-15</f>
         <v>0</v>
       </c>
-      <c r="M53" s="3">
-        <v>0</v>
-      </c>
       <c r="N53" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>175</v>
+      </c>
+      <c r="R53" t="s">
         <v>443</v>
       </c>
-      <c r="P53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    </row>
+    <row r="54" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B54" t="s">
@@ -5757,21 +5418,24 @@
       <c r="L54" s="2">
         <v>0</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="2">
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O54" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>178</v>
+      </c>
+      <c r="R54" t="s">
         <v>443</v>
       </c>
-      <c r="P54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>179</v>
       </c>
@@ -5806,20 +5470,23 @@
       <c r="L55" s="2">
         <v>0</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
         <f>22.5-15</f>
         <v>7.5</v>
       </c>
-      <c r="N55" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="O55" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B56" t="s">
@@ -5853,21 +5520,24 @@
       <c r="L56" s="2">
         <v>0</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="2">
         <v>0</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>184</v>
+      </c>
+      <c r="R56" t="s">
         <v>443</v>
       </c>
-      <c r="P56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>194</v>
       </c>
@@ -5902,25 +5572,25 @@
         <v>0</v>
       </c>
       <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
         <f>87.5-15</f>
         <v>72.5</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
         <v>196</v>
       </c>
-      <c r="Q57" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    </row>
+    <row r="58" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B58" t="s">
@@ -5952,24 +5622,27 @@
         <v>0</v>
       </c>
       <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
         <f>10-10</f>
         <v>0</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O58" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>190</v>
+      </c>
+      <c r="R58" t="s">
         <v>443</v>
       </c>
-      <c r="P58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>191</v>
       </c>
@@ -6002,21 +5675,24 @@
         <v>0</v>
       </c>
       <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
         <f>7-7</f>
         <v>0</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36.5</v>
       </c>
-      <c r="N59" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P59" t="s">
+      <c r="O59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>197</v>
       </c>
@@ -6046,27 +5722,27 @@
         <v>22</v>
       </c>
       <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
         <v>32.5</v>
       </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="2">
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P60" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" t="s">
         <v>199</v>
       </c>
-      <c r="Q60" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="61" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B61" t="s">
@@ -6094,24 +5770,26 @@
       <c r="J61" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
+      <c r="K61" s="2"/>
       <c r="L61" s="2">
-        <v>32.5</v>
-      </c>
-      <c r="M61" s="3">
-        <v>-4</v>
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <f>32.5-4</f>
+        <v>28.5</v>
       </c>
       <c r="N61" s="3">
-        <f>L61 + K61   +  M61 - (G61 + I61 + J61)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>200</v>
       </c>
@@ -6146,18 +5824,24 @@
       <c r="L62" s="2">
         <v>0</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <f t="shared" ref="N62:N68" si="9">L62 + K62   +  M62 - (G62 + I62 + J62+ H62)</f>
+      <c r="O62" s="3">
+        <f t="shared" si="0"/>
         <v>-7.5</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>203</v>
       </c>
@@ -6192,19 +5876,22 @@
       <c r="L63" s="2">
         <v>0</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
         <v>4</v>
       </c>
-      <c r="N63" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="O63" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B64" t="s">
@@ -6238,21 +5925,24 @@
       <c r="L64" s="2">
         <v>0</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="2">
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O64" t="s">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>208</v>
+      </c>
+      <c r="R64" t="s">
         <v>443</v>
       </c>
-      <c r="P64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>209</v>
       </c>
@@ -6285,21 +5975,24 @@
         <v>0</v>
       </c>
       <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
         <f>129.5-20</f>
         <v>109.5</v>
       </c>
-      <c r="M65" s="3">
-        <v>0</v>
-      </c>
       <c r="N65" s="3">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>211</v>
       </c>
@@ -6332,21 +6025,24 @@
         <v>0</v>
       </c>
       <c r="L66" s="2">
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
         <v>7.5</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
       <c r="N66" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P66" t="s">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B67" t="s">
@@ -6380,22 +6076,25 @@
       <c r="L67" s="2">
         <v>0</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="2">
         <v>0</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" ref="O67:O130" si="1">M67 + L67   +  N67 - (G67 + I67 + J67 + K67 + H67)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>216</v>
+      </c>
+      <c r="R67" t="s">
         <v>443</v>
       </c>
-      <c r="P67" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    </row>
+    <row r="68" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B68" t="s">
@@ -6411,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2">
@@ -6427,21 +6126,25 @@
         <v>0</v>
       </c>
       <c r="L68" s="2">
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <f>38.5</f>
         <v>38.5</v>
       </c>
-      <c r="M68" s="3">
-        <v>0</v>
-      </c>
       <c r="N68" s="3">
-        <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="P68" t="s">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q68" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B69" t="s">
@@ -6457,37 +6160,42 @@
         <v>9</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="2">
-        <v>21</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="H69" s="2">
+        <f>75+75</f>
+        <v>150</v>
+      </c>
       <c r="I69" s="2">
         <v>4</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K69" s="2">
-        <v>0</v>
-      </c>
+      <c r="K69" s="2"/>
       <c r="L69" s="2">
-        <v>263.5</v>
-      </c>
-      <c r="M69" s="3">
-        <v>-55</v>
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <f>263.5-55</f>
+        <v>208.5</v>
       </c>
       <c r="N69" s="3">
-        <f>L69 + K69   +  M69 - (G69 + I69 + J69)</f>
-        <v>176</v>
-      </c>
-      <c r="P69" t="s">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="Q69" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B70" t="s">
@@ -6519,20 +6227,23 @@
         <v>0</v>
       </c>
       <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
         <v>7.5</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
-        <f t="shared" ref="N70:N72" si="10">L70 + K70   +  M70 - (G70 + I70 + J70+ H70)</f>
-        <v>0</v>
-      </c>
-      <c r="P70" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>226</v>
       </c>
@@ -6543,13 +6254,13 @@
         <v>227</v>
       </c>
       <c r="E71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2">
@@ -6562,22 +6273,28 @@
         <v>0</v>
       </c>
       <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
         <f>166-22.5-51-59-25</f>
         <v>8.5</v>
       </c>
-      <c r="M71" s="3">
-        <v>0</v>
-      </c>
       <c r="N71" s="3">
-        <f t="shared" si="10"/>
-        <v>-18</v>
-      </c>
-      <c r="P71" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="Q71" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="R71" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B72" t="s">
@@ -6598,7 +6315,9 @@
       <c r="G72" s="2">
         <v>15</v>
       </c>
-      <c r="H72" s="2"/>
+      <c r="H72" s="2">
+        <v>115</v>
+      </c>
       <c r="I72" s="2">
         <v>0</v>
       </c>
@@ -6609,21 +6328,25 @@
         <v>0</v>
       </c>
       <c r="L72" s="2">
-        <v>147.5</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
+        <f>147.5-10</f>
+        <v>137.5</v>
       </c>
       <c r="N72" s="3">
-        <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
-      <c r="P72" t="s">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B73" t="s">
@@ -6636,12 +6359,14 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H73" s="2">
+        <v>80</v>
+      </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
@@ -6649,23 +6374,28 @@
         <v>22</v>
       </c>
       <c r="K73" s="2">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="L73" s="2">
-        <v>41.5</v>
-      </c>
-      <c r="M73" s="3">
-        <v>-17</v>
+        <f>135-17</f>
+        <v>118</v>
+      </c>
+      <c r="M73" s="2">
+        <f>41.5-30</f>
+        <v>11.5</v>
       </c>
       <c r="N73" s="3">
-        <f>L73 + K73   +  M73 - (G73 + I73 + J73)</f>
-        <v>152</v>
-      </c>
-      <c r="P73" t="s">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q73" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -6692,23 +6422,29 @@
         <v>22</v>
       </c>
       <c r="K74" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L74" s="2">
+        <v>0</v>
+      </c>
+      <c r="M74" s="2">
         <v>25</v>
       </c>
-      <c r="M74" s="3">
+      <c r="N74" s="3">
         <v>-37.5</v>
       </c>
-      <c r="N74" s="3">
-        <f>L74 + K74   +  M74 - (G74 + I74 + J74)</f>
-        <v>-20</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="O74" s="3">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+      <c r="Q74" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R74" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>240</v>
       </c>
@@ -6741,20 +6477,27 @@
         <v>0</v>
       </c>
       <c r="L75" s="2">
-        <v>15</v>
-      </c>
-      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <f>15-15</f>
         <v>0</v>
       </c>
       <c r="N75" s="3">
-        <f>L75 + K75   +  M75 - (G75 + I75 + J75+ H75)</f>
-        <v>7.5</v>
-      </c>
-      <c r="P75" t="s">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.5</v>
+      </c>
+      <c r="Q75" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R75" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>243</v>
       </c>
@@ -6780,26 +6523,27 @@
       <c r="J76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K76" s="2">
-        <v>0</v>
-      </c>
+      <c r="K76" s="2"/>
       <c r="L76" s="2">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
         <f>70-45-25</f>
         <v>0</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-45</v>
       </c>
-      <c r="N76" s="3">
-        <f>L76 + K76   +  M76 - (G76 + I76 + J76)</f>
+      <c r="O76" s="3">
+        <f t="shared" si="1"/>
         <v>-62.5</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B77" t="s">
@@ -6831,21 +6575,24 @@
         <v>0</v>
       </c>
       <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
         <v>15</v>
       </c>
-      <c r="M77" s="3">
-        <v>0</v>
-      </c>
       <c r="N77" s="3">
-        <f t="shared" ref="N77:N82" si="11">L77 + K77   +  M77 - (G77 + I77 + J77+ H77)</f>
-        <v>0</v>
-      </c>
-      <c r="P77" t="s">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B78" t="s">
@@ -6864,7 +6611,7 @@
         <v>3</v>
       </c>
       <c r="G78" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2">
@@ -6877,21 +6624,24 @@
         <v>0</v>
       </c>
       <c r="L78" s="2">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
         <v>32.5</v>
       </c>
-      <c r="M78" s="3">
-        <v>0</v>
-      </c>
       <c r="N78" s="3">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="P78" t="s">
+        <v>0</v>
+      </c>
+      <c r="O78" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B79" t="s">
@@ -6917,24 +6667,28 @@
         <v>22</v>
       </c>
       <c r="K79" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L79" s="2">
-        <v>55</v>
-      </c>
-      <c r="M79" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <f>55-15</f>
+        <v>40</v>
       </c>
       <c r="N79" s="3">
-        <f t="shared" si="11"/>
-        <v>47.5</v>
-      </c>
-      <c r="P79" t="s">
+        <v>0</v>
+      </c>
+      <c r="O79" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="Q79" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B80" t="s">
@@ -6953,9 +6707,11 @@
         <v>0</v>
       </c>
       <c r="G80" s="2">
-        <v>14</v>
-      </c>
-      <c r="H80" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H80" s="2">
+        <v>25</v>
+      </c>
       <c r="I80" s="2">
         <v>4</v>
       </c>
@@ -6963,24 +6719,28 @@
         <v>22</v>
       </c>
       <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
         <v>51.5</v>
       </c>
-      <c r="L80" s="2">
-        <v>9</v>
-      </c>
-      <c r="M80" s="3">
+      <c r="M80" s="2">
+        <f>9-9</f>
         <v>0</v>
       </c>
       <c r="N80" s="3">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="P80" t="s">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B81" t="s">
@@ -7012,21 +6772,25 @@
         <v>0</v>
       </c>
       <c r="L81" s="2">
-        <v>19</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <f>19-7.5</f>
+        <v>11.5</v>
       </c>
       <c r="N81" s="3">
-        <f t="shared" si="11"/>
-        <v>7.5</v>
-      </c>
-      <c r="P81" t="s">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B82" t="s">
@@ -7058,20 +6822,24 @@
         <v>0</v>
       </c>
       <c r="L82" s="2">
-        <v>45.5</v>
-      </c>
-      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
+        <f>45.5-15</f>
+        <v>30.5</v>
+      </c>
+      <c r="N82" s="3">
         <v>4</v>
       </c>
-      <c r="N82" s="3">
-        <f t="shared" si="11"/>
-        <v>38</v>
-      </c>
-      <c r="P82" t="s">
+      <c r="O82" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q82" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>260</v>
       </c>
@@ -7093,32 +6861,39 @@
       <c r="G83" s="2">
         <v>15</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" s="2">
+        <v>115</v>
+      </c>
       <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
       </c>
-      <c r="K83" s="2">
-        <v>0</v>
-      </c>
+      <c r="K83" s="2"/>
       <c r="L83" s="2">
-        <v>185</v>
-      </c>
-      <c r="M83" s="3">
-        <v>-45</v>
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
+        <f>185-45-15</f>
+        <v>125</v>
       </c>
       <c r="N83" s="3">
-        <f>L83 + K83   +  M83 - (G83 + I83 + J83)</f>
-        <v>125</v>
-      </c>
-      <c r="P83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="Q83" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="R83" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>263</v>
       </c>
       <c r="B84" t="s">
@@ -7147,25 +6922,28 @@
         <v>22</v>
       </c>
       <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
         <v>4</v>
       </c>
-      <c r="L84" s="2">
+      <c r="M84" s="2">
         <f>3.75+3.75</f>
         <v>7.5</v>
       </c>
-      <c r="M84" s="3">
-        <v>0</v>
-      </c>
       <c r="N84" s="3">
-        <f t="shared" ref="N84:N93" si="12">L84 + K84   +  M84 - (G84 + I84 + J84+ H84)</f>
-        <v>0</v>
-      </c>
-      <c r="P84" t="s">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B85" t="s">
@@ -7183,7 +6961,9 @@
       <c r="G85" s="2">
         <v>0</v>
       </c>
-      <c r="H85" s="2"/>
+      <c r="H85" s="2">
+        <v>55</v>
+      </c>
       <c r="I85" s="2">
         <v>0</v>
       </c>
@@ -7191,24 +6971,27 @@
         <v>0</v>
       </c>
       <c r="K85" s="2">
+        <v>25</v>
+      </c>
+      <c r="L85" s="2">
         <v>80</v>
       </c>
-      <c r="L85" s="2">
-        <v>0</v>
-      </c>
-      <c r="M85" s="3">
+      <c r="M85" s="2">
         <v>0</v>
       </c>
       <c r="N85" s="3">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="P85" t="s">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>268</v>
       </c>
       <c r="B86" t="s">
@@ -7239,22 +7022,25 @@
       <c r="L86" s="2">
         <v>0</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M86" s="2">
         <v>0</v>
       </c>
       <c r="N86" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O86" t="s">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>270</v>
+      </c>
+      <c r="R86" t="s">
         <v>443</v>
       </c>
-      <c r="P86" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    </row>
+    <row r="87" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>271</v>
       </c>
       <c r="B87" t="s">
@@ -7275,7 +7061,9 @@
       <c r="G87" s="2">
         <v>15</v>
       </c>
-      <c r="H87" s="2"/>
+      <c r="H87" s="2">
+        <v>115</v>
+      </c>
       <c r="I87" s="2">
         <v>0</v>
       </c>
@@ -7286,21 +7074,25 @@
         <v>0</v>
       </c>
       <c r="L87" s="2">
-        <v>147.5</v>
-      </c>
-      <c r="M87" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <f>147.5-10</f>
+        <v>137.5</v>
       </c>
       <c r="N87" s="3">
-        <f t="shared" si="12"/>
-        <v>125</v>
-      </c>
-      <c r="P87" t="s">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B88" t="s">
@@ -7334,19 +7126,25 @@
       <c r="L88" s="2">
         <v>0</v>
       </c>
-      <c r="M88" s="3">
+      <c r="M88" s="2">
         <v>0</v>
       </c>
       <c r="N88" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P88" t="s">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="R88" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B89" t="s">
@@ -7364,7 +7162,9 @@
       <c r="G89" s="2">
         <v>25</v>
       </c>
-      <c r="H89" s="2"/>
+      <c r="H89" s="2">
+        <v>102</v>
+      </c>
       <c r="I89" s="2">
         <v>0</v>
       </c>
@@ -7375,21 +7175,24 @@
         <v>0</v>
       </c>
       <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
         <v>157.5</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <f t="shared" si="12"/>
-        <v>125</v>
-      </c>
-      <c r="P89" t="s">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q89" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B90" t="s">
@@ -7410,7 +7213,9 @@
       <c r="G90" s="2">
         <v>25</v>
       </c>
-      <c r="H90" s="2"/>
+      <c r="H90" s="2">
+        <v>77</v>
+      </c>
       <c r="I90" s="2">
         <v>4</v>
       </c>
@@ -7418,24 +7223,28 @@
         <v>22</v>
       </c>
       <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
         <v>126.5</v>
       </c>
-      <c r="L90" s="2">
-        <v>26.5</v>
-      </c>
-      <c r="M90" s="3">
+      <c r="M90" s="2">
+        <f>26.5-26.5</f>
         <v>0</v>
       </c>
       <c r="N90" s="3">
-        <f t="shared" si="12"/>
-        <v>116.5</v>
-      </c>
-      <c r="P90" t="s">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="Q90" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B91" t="s">
@@ -7456,7 +7265,9 @@
       <c r="G91" s="2">
         <v>25</v>
       </c>
-      <c r="H91" s="2"/>
+      <c r="H91" s="2">
+        <v>95</v>
+      </c>
       <c r="I91" s="2">
         <v>0</v>
       </c>
@@ -7464,23 +7275,26 @@
         <v>0</v>
       </c>
       <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
         <v>150</v>
       </c>
-      <c r="L91" s="2">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="2">
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <f t="shared" si="12"/>
-        <v>125</v>
-      </c>
-      <c r="P91" t="s">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="Q91" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>285</v>
       </c>
@@ -7512,19 +7326,25 @@
       <c r="L92" s="2">
         <v>0</v>
       </c>
-      <c r="M92" s="3">
+      <c r="M92" s="2">
         <v>0</v>
       </c>
       <c r="N92" s="3">
-        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="R92" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>288</v>
       </c>
       <c r="B93" t="s">
@@ -7555,18 +7375,24 @@
       <c r="L93" s="2">
         <v>0</v>
       </c>
-      <c r="M93" s="3">
+      <c r="M93" s="2">
         <v>0</v>
       </c>
       <c r="N93" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P93" t="s">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R93" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>291</v>
       </c>
@@ -7595,25 +7421,30 @@
       <c r="J94" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K94" s="2">
-        <v>0</v>
-      </c>
+      <c r="K94" s="2"/>
       <c r="L94" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-4</v>
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <f>11.5-4</f>
+        <v>7.5</v>
       </c>
       <c r="N94" s="3">
-        <f>L94 + K94   +  M94 - (G94 + I94 + J94)</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="R94" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>294</v>
       </c>
       <c r="B95" t="s">
@@ -7641,25 +7472,27 @@
       <c r="J95" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K95" s="2">
-        <v>0</v>
-      </c>
+      <c r="K95" s="2"/>
       <c r="L95" s="2">
-        <v>41.5</v>
-      </c>
-      <c r="M95" s="3">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <f>41.5-15-15</f>
+        <v>11.5</v>
       </c>
       <c r="N95" s="3">
-        <f>L95 + K95   +  M95 - (G95 + I95 + J95)</f>
-        <v>15</v>
-      </c>
-      <c r="P95" t="s">
+        <v>0</v>
+      </c>
+      <c r="O95" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>297</v>
       </c>
       <c r="B96" t="s">
@@ -7680,7 +7513,9 @@
       <c r="G96" s="2">
         <v>0</v>
       </c>
-      <c r="H96" s="2"/>
+      <c r="H96" s="2">
+        <v>115</v>
+      </c>
       <c r="I96" s="2">
         <v>0</v>
       </c>
@@ -7691,20 +7526,23 @@
         <v>0</v>
       </c>
       <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
         <v>15</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>100</v>
       </c>
-      <c r="N96" s="3">
-        <f>L96 + K96   +  M96 - (G96 + I96 + J96+ H96)</f>
-        <v>115</v>
-      </c>
-      <c r="P96" t="s">
+      <c r="O96" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>300</v>
       </c>
@@ -7733,25 +7571,26 @@
       <c r="J97" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K97" s="2">
-        <v>0</v>
-      </c>
+      <c r="K97" s="2"/>
       <c r="L97" s="2">
         <v>0</v>
       </c>
-      <c r="M97" s="3">
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
         <v>-23</v>
       </c>
-      <c r="N97" s="3">
-        <f>L97 + K97   +  M97 - (G97 + I97 + J97)</f>
+      <c r="O97" s="3">
+        <f t="shared" si="1"/>
         <v>-30.5</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>303</v>
       </c>
       <c r="B98" t="s">
@@ -7772,7 +7611,9 @@
       <c r="G98" s="2">
         <v>0</v>
       </c>
-      <c r="H98" s="2"/>
+      <c r="H98" s="2">
+        <v>50</v>
+      </c>
       <c r="I98" s="2">
         <v>0</v>
       </c>
@@ -7783,21 +7624,24 @@
         <v>0</v>
       </c>
       <c r="L98" s="2">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
         <v>57.5</v>
       </c>
-      <c r="M98" s="3">
-        <v>0</v>
-      </c>
       <c r="N98" s="3">
-        <f t="shared" ref="N98:N99" si="13">L98 + K98   +  M98 - (G98 + I98 + J98+ H98)</f>
-        <v>50</v>
-      </c>
-      <c r="P98" t="s">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B99" t="s">
@@ -7818,7 +7662,9 @@
       <c r="G99" s="2">
         <v>25</v>
       </c>
-      <c r="H99" s="2"/>
+      <c r="H99" s="2">
+        <v>125</v>
+      </c>
       <c r="I99" s="2">
         <v>0</v>
       </c>
@@ -7829,20 +7675,23 @@
         <v>0</v>
       </c>
       <c r="L99" s="2">
+        <v>0</v>
+      </c>
+      <c r="M99" s="2">
         <v>32.5</v>
       </c>
-      <c r="M99" s="3">
+      <c r="N99" s="3">
         <v>125</v>
       </c>
-      <c r="N99" s="3">
-        <f t="shared" si="13"/>
-        <v>125</v>
-      </c>
-      <c r="P99" t="s">
+      <c r="O99" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q99" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>309</v>
       </c>
@@ -7868,25 +7717,29 @@
       <c r="J100" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K100" s="2">
-        <v>0</v>
-      </c>
+      <c r="K100" s="2"/>
       <c r="L100" s="2">
         <v>0</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-15</v>
       </c>
-      <c r="N100" s="3">
-        <f>L100 + K100   +  M100 - (G100 + I100 + J100)</f>
+      <c r="O100" s="3">
+        <f t="shared" si="1"/>
         <v>-22.5</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="R100" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B101" t="s">
@@ -7920,19 +7773,25 @@
       <c r="L101" s="2">
         <v>0</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="2">
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <f t="shared" ref="N101:N104" si="14">L101 + K101   +  M101 - (G101 + I101 + J101+ H101)</f>
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P101" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q101" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B102" t="s">
@@ -7964,21 +7823,25 @@
         <v>0</v>
       </c>
       <c r="L102" s="2">
-        <v>41.5</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <f>41.5-15</f>
+        <v>26.5</v>
       </c>
       <c r="N102" s="3">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="P102" t="s">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B103" t="s">
@@ -8010,21 +7873,25 @@
         <v>0</v>
       </c>
       <c r="L103" s="2">
-        <v>15</v>
-      </c>
-      <c r="M103" s="3">
+        <v>0</v>
+      </c>
+      <c r="M103" s="2">
+        <f>15-15</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="3">
         <v>7.5</v>
       </c>
-      <c r="N103" s="3">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="P103" t="s">
+      <c r="O103" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B104" t="s">
@@ -8043,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2">
@@ -8056,21 +7923,28 @@
         <v>0</v>
       </c>
       <c r="L104" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="M104" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M104" s="2">
+        <f>20.5+5.5-3.5</f>
+        <v>22.5</v>
       </c>
       <c r="N104" s="3">
-        <f t="shared" si="14"/>
-        <v>-1</v>
-      </c>
-      <c r="P104" t="s">
+        <v>0</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q104" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="R104" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B105" t="s">
@@ -8095,25 +7969,27 @@
       <c r="J105" s="2">
         <v>0</v>
       </c>
-      <c r="K105" s="2">
-        <v>0</v>
-      </c>
+      <c r="K105" s="2"/>
       <c r="L105" s="2">
-        <v>58</v>
-      </c>
-      <c r="M105" s="3">
-        <v>-18</v>
+        <v>0</v>
+      </c>
+      <c r="M105" s="2">
+        <f>58-18-30</f>
+        <v>10</v>
       </c>
       <c r="N105" s="3">
-        <f>L105 + K105   +  M105 - (G105 + I105 + J105)</f>
-        <v>30</v>
-      </c>
-      <c r="P105" t="s">
+        <v>0</v>
+      </c>
+      <c r="O105" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q105" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B106" t="s">
@@ -8138,24 +8014,26 @@
       <c r="J106" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K106" s="2">
-        <v>22.5</v>
-      </c>
+      <c r="K106" s="2"/>
       <c r="L106" s="2">
-        <v>0</v>
-      </c>
-      <c r="M106" s="3">
-        <v>-19</v>
+        <f>22.5-15</f>
+        <v>7.5</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0</v>
       </c>
       <c r="N106" s="3">
-        <f>L106 + K106   +  M106 - (G106 + I106 + J106)</f>
-        <v>-4</v>
-      </c>
-      <c r="P106" t="s">
+        <v>0</v>
+      </c>
+      <c r="O106" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q106" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>330</v>
       </c>
@@ -8177,7 +8055,9 @@
       <c r="G107" s="2">
         <v>0</v>
       </c>
-      <c r="H107" s="2"/>
+      <c r="H107" s="2">
+        <v>90</v>
+      </c>
       <c r="I107" s="2">
         <v>4</v>
       </c>
@@ -8188,21 +8068,27 @@
         <v>0</v>
       </c>
       <c r="L107" s="2">
+        <v>0</v>
+      </c>
+      <c r="M107" s="2">
         <v>81.5</v>
       </c>
-      <c r="M107" s="3">
-        <v>0</v>
-      </c>
       <c r="N107" s="3">
-        <f t="shared" ref="N107:N110" si="15">L107 + K107   +  M107 - (G107 + I107 + J107+ H107)</f>
-        <v>70</v>
-      </c>
-      <c r="P107" t="s">
+        <v>0</v>
+      </c>
+      <c r="O107" s="3">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="Q107" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="R107" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>333</v>
       </c>
       <c r="B108" t="s">
@@ -8220,7 +8106,9 @@
       <c r="G108" s="2">
         <v>25</v>
       </c>
-      <c r="H108" s="2"/>
+      <c r="H108" s="2">
+        <v>102</v>
+      </c>
       <c r="I108" s="2">
         <v>0</v>
       </c>
@@ -8231,21 +8119,24 @@
         <v>0</v>
       </c>
       <c r="L108" s="2">
+        <v>0</v>
+      </c>
+      <c r="M108" s="2">
         <v>157.5</v>
       </c>
-      <c r="M108" s="3">
-        <v>0</v>
-      </c>
       <c r="N108" s="3">
-        <f t="shared" si="15"/>
-        <v>125</v>
-      </c>
-      <c r="P108" t="s">
+        <v>0</v>
+      </c>
+      <c r="O108" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q108" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>335</v>
       </c>
       <c r="B109" t="s">
@@ -8279,18 +8170,21 @@
       <c r="L109" s="2">
         <v>0</v>
       </c>
-      <c r="M109" s="3">
+      <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="3">
         <v>7.5</v>
       </c>
-      <c r="N109" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P109" t="s">
+      <c r="O109" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>338</v>
       </c>
@@ -8320,21 +8214,27 @@
         <v>0</v>
       </c>
       <c r="L110" s="2">
-        <f>132-1-73-25</f>
-        <v>33</v>
-      </c>
-      <c r="M110" s="3">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <f>132-1-73-25-3-30</f>
         <v>0</v>
       </c>
       <c r="N110" s="3">
-        <f t="shared" si="15"/>
-        <v>-3.5</v>
-      </c>
-      <c r="P110" t="s">
+        <v>0</v>
+      </c>
+      <c r="O110" s="3">
+        <f t="shared" si="1"/>
+        <v>-36.5</v>
+      </c>
+      <c r="Q110" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R110" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>341</v>
       </c>
@@ -8360,26 +8260,30 @@
       <c r="J111" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K111" s="2">
-        <v>0</v>
-      </c>
+      <c r="K111" s="2"/>
       <c r="L111" s="2">
+        <v>0</v>
+      </c>
+      <c r="M111" s="2">
         <f>62.5-25-37.5</f>
         <v>0</v>
       </c>
-      <c r="M111" s="3">
+      <c r="N111" s="3">
         <v>-23</v>
       </c>
-      <c r="N111" s="3">
-        <f>L111 + K111   +  M111 - (G111 + I111 + J111)</f>
+      <c r="O111" s="3">
+        <f t="shared" si="1"/>
         <v>-30.5</v>
       </c>
-      <c r="P111" t="s">
+      <c r="Q111" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="R111" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B112" t="s">
@@ -8400,7 +8304,9 @@
       <c r="G112" s="2">
         <v>15</v>
       </c>
-      <c r="H112" s="2"/>
+      <c r="H112" s="2">
+        <v>73</v>
+      </c>
       <c r="I112" s="2">
         <v>4</v>
       </c>
@@ -8411,20 +8317,24 @@
         <v>0</v>
       </c>
       <c r="L112" s="2">
-        <v>114.5</v>
-      </c>
-      <c r="M112" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <f>114.5-15</f>
+        <v>99.5</v>
       </c>
       <c r="N112" s="3">
-        <f>L112 + K112   +  M112 - (G112 + I112 + J112+ H112)</f>
-        <v>88</v>
-      </c>
-      <c r="P112" t="s">
+        <v>0</v>
+      </c>
+      <c r="O112" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>347</v>
       </c>
@@ -8450,25 +8360,29 @@
       <c r="J113" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K113" s="2">
-        <v>0</v>
-      </c>
+      <c r="K113" s="2"/>
       <c r="L113" s="2">
         <v>0</v>
       </c>
-      <c r="M113" s="3">
+      <c r="M113" s="2">
+        <v>0</v>
+      </c>
+      <c r="N113" s="3">
         <v>-45</v>
       </c>
-      <c r="N113" s="3">
-        <f>L113 + K113   +  M113 - (G113 + I113 + J113)</f>
+      <c r="O113" s="3">
+        <f t="shared" si="1"/>
         <v>-67.5</v>
       </c>
-      <c r="P113" t="s">
+      <c r="Q113" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="R113" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>350</v>
       </c>
       <c r="B114" t="s">
@@ -8499,18 +8413,24 @@
       <c r="L114" s="2">
         <v>0</v>
       </c>
-      <c r="M114" s="3">
+      <c r="M114" s="2">
         <v>0</v>
       </c>
       <c r="N114" s="3">
-        <f>L114 + K114   +  M114 - (G114 + I114 + J114+ H114)</f>
+        <v>0</v>
+      </c>
+      <c r="O114" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P114" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q114" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>353</v>
       </c>
@@ -8536,24 +8456,29 @@
       <c r="J115" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K115" s="2">
-        <v>65</v>
-      </c>
+      <c r="K115" s="2"/>
       <c r="L115" s="2">
-        <v>0</v>
-      </c>
-      <c r="M115" s="3">
-        <v>-65</v>
+        <f>65-65</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="2">
+        <v>0</v>
       </c>
       <c r="N115" s="3">
-        <f>L115 + K115   +  M115 - (G115 + I115 + J115)</f>
+        <v>0</v>
+      </c>
+      <c r="O115" s="3">
+        <f t="shared" si="1"/>
         <v>-32.5</v>
       </c>
-      <c r="P115" t="s">
+      <c r="Q115" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R115" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>356</v>
       </c>
@@ -8585,19 +8510,25 @@
       <c r="L116" s="2">
         <v>0</v>
       </c>
-      <c r="M116" s="3">
+      <c r="M116" s="2">
         <v>0</v>
       </c>
       <c r="N116" s="3">
-        <f>L116 + K116   +  M116 - (G116 + I116 + J116+ H116)</f>
+        <v>0</v>
+      </c>
+      <c r="O116" s="3">
+        <f t="shared" si="1"/>
         <v>-7.5</v>
       </c>
-      <c r="P116" t="s">
+      <c r="Q116" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="R116" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>359</v>
       </c>
       <c r="B117" t="s">
@@ -8625,24 +8556,26 @@
       <c r="J117" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K117" s="2">
-        <v>0</v>
-      </c>
+      <c r="K117" s="2"/>
       <c r="L117" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="M117" s="3">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="M117" s="2">
+        <f>22.5-15</f>
+        <v>7.5</v>
       </c>
       <c r="N117" s="3">
-        <f>L117 + K117   +  M117 - (G117 + I117 + J117)</f>
-        <v>0</v>
-      </c>
-      <c r="P117" t="s">
+        <v>0</v>
+      </c>
+      <c r="O117" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q117" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>362</v>
       </c>
@@ -8668,25 +8601,29 @@
       <c r="J118" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K118" s="2">
-        <v>0</v>
-      </c>
+      <c r="K118" s="2"/>
       <c r="L118" s="2">
         <v>0</v>
       </c>
-      <c r="M118" s="3">
+      <c r="M118" s="2">
+        <v>0</v>
+      </c>
+      <c r="N118" s="3">
         <v>-37.5</v>
       </c>
-      <c r="N118" s="3">
-        <f>L118 + K118   +  M118 - (G118 + I118 + J118)</f>
+      <c r="O118" s="3">
+        <f t="shared" si="1"/>
         <v>-45</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="R118" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>365</v>
       </c>
       <c r="B119" t="s">
@@ -8705,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2">
@@ -8718,21 +8655,25 @@
         <v>0</v>
       </c>
       <c r="L119" s="2">
-        <v>40</v>
-      </c>
-      <c r="M119" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M119" s="2">
+        <f>40-17.5</f>
+        <v>22.5</v>
       </c>
       <c r="N119" s="3">
-        <f t="shared" ref="N119:N123" si="16">L119 + K119   +  M119 - (G119 + I119 + J119+ H119)</f>
-        <v>20.5</v>
-      </c>
-      <c r="P119" t="s">
+        <v>0</v>
+      </c>
+      <c r="O119" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q119" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>368</v>
       </c>
       <c r="B120" t="s">
@@ -8764,21 +8705,25 @@
         <v>0</v>
       </c>
       <c r="L120" s="2">
-        <v>84.5</v>
-      </c>
-      <c r="M120" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M120" s="2">
+        <f>84.5-50</f>
+        <v>34.5</v>
       </c>
       <c r="N120" s="3">
-        <f t="shared" si="16"/>
-        <v>73</v>
-      </c>
-      <c r="P120" t="s">
+        <v>0</v>
+      </c>
+      <c r="O120" s="3">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Q120" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>371</v>
       </c>
       <c r="B121" t="s">
@@ -8807,21 +8752,28 @@
         <v>0</v>
       </c>
       <c r="L121" s="2">
-        <v>15</v>
-      </c>
-      <c r="M121" s="3">
+        <v>0</v>
+      </c>
+      <c r="M121" s="2">
+        <f>15-15</f>
         <v>0</v>
       </c>
       <c r="N121" s="3">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="O121" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P121" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q121" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>374</v>
       </c>
       <c r="B122" t="s">
@@ -8837,9 +8789,11 @@
         <v>4</v>
       </c>
       <c r="G122" s="2">
-        <v>23</v>
-      </c>
-      <c r="H122" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="H122" s="2">
+        <v>84</v>
+      </c>
       <c r="I122" s="2">
         <v>0</v>
       </c>
@@ -8850,21 +8804,28 @@
         <v>0</v>
       </c>
       <c r="L122" s="2">
-        <v>131.5</v>
-      </c>
-      <c r="M122" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M122" s="2">
+        <f>131.5-15</f>
+        <v>116.5</v>
       </c>
       <c r="N122" s="3">
-        <f t="shared" si="16"/>
-        <v>101</v>
-      </c>
-      <c r="P122" t="s">
+        <v>0</v>
+      </c>
+      <c r="O122" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q122" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="R122" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
         <v>377</v>
       </c>
       <c r="B123" t="s">
@@ -8896,21 +8857,25 @@
         <v>0</v>
       </c>
       <c r="L123" s="2">
-        <v>19</v>
-      </c>
-      <c r="M123" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M123" s="2">
+        <f>19-15</f>
+        <v>4</v>
       </c>
       <c r="N123" s="3">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="P123" t="s">
+        <v>0</v>
+      </c>
+      <c r="O123" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>380</v>
       </c>
       <c r="B124" t="s">
@@ -8929,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2">
@@ -8938,25 +8903,27 @@
       <c r="J124" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K124" s="2">
-        <v>0</v>
-      </c>
+      <c r="K124" s="2"/>
       <c r="L124" s="2">
-        <v>82.5</v>
-      </c>
-      <c r="M124" s="3">
-        <v>-45</v>
+        <v>0</v>
+      </c>
+      <c r="M124" s="2">
+        <f>82.5-45-15</f>
+        <v>22.5</v>
       </c>
       <c r="N124" s="3">
-        <f>L124 + K124   +  M124 - (G124 + I124 + J124)</f>
-        <v>16</v>
-      </c>
-      <c r="P124" t="s">
+        <v>0</v>
+      </c>
+      <c r="O124" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q124" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
         <v>383</v>
       </c>
       <c r="B125" t="s">
@@ -8988,21 +8955,24 @@
         <v>0</v>
       </c>
       <c r="L125" s="2">
+        <v>0</v>
+      </c>
+      <c r="M125" s="2">
         <v>7.5</v>
       </c>
-      <c r="M125" s="3">
-        <v>0</v>
-      </c>
       <c r="N125" s="3">
-        <f t="shared" ref="N125:N126" si="17">L125 + K125   +  M125 - (G125 + I125 + J125+ H125)</f>
-        <v>0</v>
-      </c>
-      <c r="P125" t="s">
+        <v>0</v>
+      </c>
+      <c r="O125" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q125" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>386</v>
       </c>
       <c r="B126" t="s">
@@ -9034,20 +9004,24 @@
         <v>0</v>
       </c>
       <c r="L126" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="M126" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M126" s="2">
+        <f>37.5-15</f>
+        <v>22.5</v>
       </c>
       <c r="N126" s="3">
-        <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="P126" t="s">
+        <v>0</v>
+      </c>
+      <c r="O126" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q126" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>389</v>
       </c>
@@ -9076,25 +9050,30 @@
       <c r="J127" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K127" s="2">
-        <v>0</v>
-      </c>
+      <c r="K127" s="2"/>
       <c r="L127" s="2">
-        <v>34.5</v>
-      </c>
-      <c r="M127" s="3">
-        <v>-12</v>
+        <v>0</v>
+      </c>
+      <c r="M127" s="2">
+        <f>34.5-12</f>
+        <v>22.5</v>
       </c>
       <c r="N127" s="3">
-        <f>L127 + K127   +  M127 - (G127 + I127 + J127)</f>
+        <v>0</v>
+      </c>
+      <c r="O127" s="3">
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="P127" t="s">
+      <c r="Q127" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="R127" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B128" t="s">
@@ -9115,7 +9094,9 @@
       <c r="G128" s="2">
         <v>0</v>
       </c>
-      <c r="H128" s="2"/>
+      <c r="H128" s="2">
+        <v>100</v>
+      </c>
       <c r="I128" s="2">
         <v>0</v>
       </c>
@@ -9126,21 +9107,25 @@
         <v>0</v>
       </c>
       <c r="L128" s="2">
-        <v>140.5</v>
-      </c>
-      <c r="M128" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M128" s="2">
+        <f>140.5-30-3</f>
+        <v>107.5</v>
       </c>
       <c r="N128" s="3">
-        <f t="shared" ref="N128:N129" si="18">L128 + K128   +  M128 - (G128 + I128 + J128+ H128)</f>
-        <v>133</v>
-      </c>
-      <c r="P128" t="s">
+        <v>0</v>
+      </c>
+      <c r="O128" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q128" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>395</v>
       </c>
       <c r="B129" t="s">
@@ -9172,21 +9157,24 @@
         <v>0</v>
       </c>
       <c r="L129" s="2">
+        <v>0</v>
+      </c>
+      <c r="M129" s="2">
         <v>7.5</v>
       </c>
-      <c r="M129" s="3">
-        <v>0</v>
-      </c>
       <c r="N129" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P129" t="s">
+        <v>0</v>
+      </c>
+      <c r="O129" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q129" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>398</v>
       </c>
       <c r="B130" t="s">
@@ -9204,32 +9192,36 @@
       <c r="G130" s="2">
         <v>0</v>
       </c>
-      <c r="H130" s="2"/>
+      <c r="H130" s="2">
+        <v>100</v>
+      </c>
       <c r="I130" s="2">
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K130" s="2">
-        <v>0</v>
-      </c>
+      <c r="K130" s="2"/>
       <c r="L130" s="2">
-        <v>137.5</v>
-      </c>
-      <c r="M130" s="3">
-        <v>-15</v>
+        <v>0</v>
+      </c>
+      <c r="M130" s="2">
+        <f>137.5-30</f>
+        <v>107.5</v>
       </c>
       <c r="N130" s="3">
-        <f>L130 + K130   +  M130 - (G130 + I130 + J130)</f>
-        <v>115</v>
-      </c>
-      <c r="P130" t="s">
+        <v>0</v>
+      </c>
+      <c r="O130" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q130" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B131" t="s">
@@ -9261,21 +9253,28 @@
         <v>0</v>
       </c>
       <c r="L131" s="2">
-        <v>5</v>
-      </c>
-      <c r="M131" s="3">
+        <v>0</v>
+      </c>
+      <c r="M131" s="2">
+        <f>5-5</f>
         <v>0</v>
       </c>
       <c r="N131" s="3">
-        <f t="shared" ref="N131:N141" si="19">L131 + K131   +  M131 - (G131 + I131 + J131+ H131)</f>
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="O131" s="3">
+        <f t="shared" ref="O131:O145" si="2">M131 + L131   +  N131 - (G131 + I131 + J131 + K131 + H131)</f>
+        <v>0</v>
       </c>
       <c r="P131" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q131" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
         <v>404</v>
       </c>
       <c r="B132" t="s">
@@ -9296,7 +9295,9 @@
       <c r="G132" s="2">
         <v>4</v>
       </c>
-      <c r="H132" s="2"/>
+      <c r="H132" s="2">
+        <v>115</v>
+      </c>
       <c r="I132" s="2">
         <v>0</v>
       </c>
@@ -9307,21 +9308,24 @@
         <v>0</v>
       </c>
       <c r="L132" s="2">
+        <v>0</v>
+      </c>
+      <c r="M132" s="2">
         <v>115</v>
       </c>
-      <c r="M132" s="3">
+      <c r="N132" s="3">
         <v>40</v>
       </c>
-      <c r="N132" s="3">
-        <f t="shared" si="19"/>
-        <v>143.5</v>
-      </c>
-      <c r="P132" t="s">
+      <c r="O132" s="3">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="Q132" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>407</v>
       </c>
       <c r="B133" t="s">
@@ -9350,22 +9354,28 @@
         <v>0</v>
       </c>
       <c r="L133" s="2">
+        <v>0</v>
+      </c>
+      <c r="M133" s="2">
         <f>62.5-2.5-15-25-20</f>
         <v>0</v>
       </c>
-      <c r="M133" s="3">
-        <v>0</v>
-      </c>
       <c r="N133" s="3">
-        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O133" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P133" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q133" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
         <v>410</v>
       </c>
       <c r="B134" t="s">
@@ -9386,7 +9396,9 @@
       <c r="G134" s="2">
         <v>0</v>
       </c>
-      <c r="H134" s="2"/>
+      <c r="H134" s="2">
+        <v>100</v>
+      </c>
       <c r="I134" s="2">
         <v>0</v>
       </c>
@@ -9397,21 +9409,25 @@
         <v>0</v>
       </c>
       <c r="L134" s="2">
-        <v>122.5</v>
-      </c>
-      <c r="M134" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M134" s="2">
+        <f>122.5-15</f>
+        <v>107.5</v>
       </c>
       <c r="N134" s="3">
-        <f t="shared" si="19"/>
-        <v>115</v>
-      </c>
-      <c r="P134" t="s">
+        <v>0</v>
+      </c>
+      <c r="O134" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q134" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>413</v>
       </c>
       <c r="B135" t="s">
@@ -9445,19 +9461,22 @@
       <c r="L135" s="2">
         <v>0</v>
       </c>
-      <c r="M135" s="3">
+      <c r="M135" s="2">
+        <v>0</v>
+      </c>
+      <c r="N135" s="3">
         <v>7.5</v>
       </c>
-      <c r="N135" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P135" t="s">
+      <c r="O135" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q135" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>416</v>
       </c>
       <c r="B136" t="s">
@@ -9491,19 +9510,25 @@
       <c r="L136" s="2">
         <v>0</v>
       </c>
-      <c r="M136" s="3">
+      <c r="M136" s="2">
         <v>0</v>
       </c>
       <c r="N136" s="3">
-        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O136" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P136" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q136" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
         <v>419</v>
       </c>
       <c r="B137" t="s">
@@ -9537,19 +9562,25 @@
       <c r="L137" s="2">
         <v>0</v>
       </c>
-      <c r="M137" s="3">
+      <c r="M137" s="2">
         <v>0</v>
       </c>
       <c r="N137" s="3">
-        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O137" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P137" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q137" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
         <v>422</v>
       </c>
       <c r="B138" t="s">
@@ -9570,7 +9601,9 @@
       <c r="G138" s="2">
         <v>15</v>
       </c>
-      <c r="H138" s="2"/>
+      <c r="H138" s="2">
+        <v>40</v>
+      </c>
       <c r="I138" s="2">
         <v>0</v>
       </c>
@@ -9581,21 +9614,24 @@
         <v>0</v>
       </c>
       <c r="L138" s="2">
+        <v>0</v>
+      </c>
+      <c r="M138" s="2">
         <v>62.5</v>
       </c>
-      <c r="M138" s="3">
-        <v>0</v>
-      </c>
       <c r="N138" s="3">
-        <f t="shared" si="19"/>
-        <v>40</v>
-      </c>
-      <c r="P138" t="s">
+        <v>0</v>
+      </c>
+      <c r="O138" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q138" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>425</v>
       </c>
       <c r="B139" t="s">
@@ -9614,9 +9650,11 @@
         <v>5</v>
       </c>
       <c r="G139" s="2">
-        <v>10</v>
-      </c>
-      <c r="H139" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H139" s="2">
+        <v>50</v>
+      </c>
       <c r="I139" s="2">
         <v>0</v>
       </c>
@@ -9627,21 +9665,27 @@
         <v>0</v>
       </c>
       <c r="L139" s="2">
+        <v>0</v>
+      </c>
+      <c r="M139" s="2">
         <v>72.5</v>
       </c>
-      <c r="M139" s="3">
+      <c r="N139" s="3">
         <v>32</v>
       </c>
-      <c r="N139" s="3">
-        <f t="shared" si="19"/>
-        <v>87</v>
-      </c>
-      <c r="P139" t="s">
+      <c r="O139" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Q139" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="R139" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
         <v>428</v>
       </c>
       <c r="B140" t="s">
@@ -9673,21 +9717,25 @@
         <v>0</v>
       </c>
       <c r="L140" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="M140" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M140" s="2">
+        <f>20.5-5.5</f>
+        <v>15</v>
       </c>
       <c r="N140" s="3">
-        <f t="shared" si="19"/>
-        <v>5.5</v>
-      </c>
-      <c r="P140" t="s">
+        <v>0</v>
+      </c>
+      <c r="O140" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q140" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>430</v>
       </c>
       <c r="B141" t="s">
@@ -9719,20 +9767,23 @@
         <v>0</v>
       </c>
       <c r="L141" s="2">
+        <v>0</v>
+      </c>
+      <c r="M141" s="2">
         <v>15</v>
       </c>
-      <c r="M141" s="3">
-        <v>0</v>
-      </c>
       <c r="N141" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P141" t="s">
+        <v>0</v>
+      </c>
+      <c r="O141" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q141" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>432</v>
       </c>
@@ -9759,23 +9810,29 @@
         <v>22</v>
       </c>
       <c r="K142" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L142" s="2">
+        <v>0</v>
+      </c>
+      <c r="M142" s="2">
         <v>25</v>
       </c>
-      <c r="M142" s="3">
+      <c r="N142" s="3">
         <v>-37.5</v>
       </c>
-      <c r="N142" s="3">
-        <f>L142 + K142   +  M142 - (G142 + I142 + J142)</f>
-        <v>-20</v>
-      </c>
-      <c r="P142" t="s">
+      <c r="O142" s="3">
+        <f t="shared" si="2"/>
+        <v>-45</v>
+      </c>
+      <c r="Q142" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R142" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>434</v>
       </c>
@@ -9802,25 +9859,31 @@
         <v>22</v>
       </c>
       <c r="K143" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L143" s="2">
-        <f>77.5-7.5-15-15</f>
-        <v>40</v>
-      </c>
-      <c r="M143" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M143" s="2">
+        <f>77.5-7.5-15-15-15</f>
+        <v>25</v>
       </c>
       <c r="N143" s="3">
-        <f t="shared" ref="N143:N145" si="20">L143 + K143   +  M143 - (G143 + I143 + J143+ H143)</f>
-        <v>32.5</v>
-      </c>
-      <c r="P143" t="s">
+        <v>0</v>
+      </c>
+      <c r="O143" s="3">
+        <f t="shared" si="2"/>
+        <v>-7.5</v>
+      </c>
+      <c r="Q143" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="R143" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>437</v>
       </c>
       <c r="B144" t="s">
@@ -9851,19 +9914,25 @@
       <c r="L144" s="2">
         <v>0</v>
       </c>
-      <c r="M144" s="3">
+      <c r="M144" s="2">
         <v>0</v>
       </c>
       <c r="N144" s="3">
-        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O144" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P144" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q144" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B145" t="s">
@@ -9894,903 +9963,754 @@
       <c r="L145" s="2">
         <v>0</v>
       </c>
-      <c r="M145" s="3">
+      <c r="M145" s="2">
         <v>0</v>
       </c>
       <c r="N145" s="3">
-        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O145" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P145" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q145" t="s">
         <v>439</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P145" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="12">
+  <autoFilter ref="A1:R145" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="13">
       <colorFilter dxfId="0" cellColor="0"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P145">
-      <sortCondition ref="A1"/>
-    </sortState>
+    <filterColumn colId="14">
+      <colorFilter dxfId="1" cellColor="0"/>
+    </filterColumn>
   </autoFilter>
+  <conditionalFormatting sqref="O2:O145">
+    <cfRule type="cellIs" dxfId="177" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" dxfId="288" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" dxfId="287" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N6 N8:N13 N15:N19 N21:N23 N25:N32 N34 N36:N37 N39:N45 N47:N50 N52:N60 N62:N68 N70:N72 N75 N77:N82 N84:N93 N96 N98:N99 N101:N104 N107:N110 N112 N114 N116 N119:N123 N125:N126 N128:N129 N131:N141 N143:N145">
-    <cfRule type="cellIs" dxfId="286" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="285" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="283" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="281" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
-    <cfRule type="cellIs" dxfId="279" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="cellIs" dxfId="174" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="cellIs" dxfId="173" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="cellIs" dxfId="172" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="cellIs" dxfId="171" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="278" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="277" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="275" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="273" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="271" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="269" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="267" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="265" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="cellIs" dxfId="168" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="167" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="cellIs" dxfId="166" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="165" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="cellIs" dxfId="164" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="cellIs" dxfId="163" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="264" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
-    <cfRule type="cellIs" dxfId="263" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="261" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="259" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="257" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="255" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="253" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="cellIs" dxfId="160" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="cellIs" dxfId="159" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="cellIs" dxfId="158" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="cellIs" dxfId="157" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="cellIs" dxfId="156" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="252" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="251" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="249" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="247" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="245" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="cellIs" dxfId="153" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="cellIs" dxfId="152" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="cellIs" dxfId="151" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="cellIs" dxfId="244" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
-    <cfRule type="cellIs" dxfId="243" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
-    <cfRule type="cellIs" dxfId="241" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="cellIs" dxfId="239" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="237" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28">
-    <cfRule type="cellIs" dxfId="235" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" dxfId="233" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30">
-    <cfRule type="cellIs" dxfId="231" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="229" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32">
-    <cfRule type="cellIs" dxfId="227" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="cellIs" dxfId="148" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="cellIs" dxfId="147" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="cellIs" dxfId="146" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="cellIs" dxfId="145" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="cellIs" dxfId="144" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="cellIs" dxfId="143" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="cellIs" dxfId="142" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="cellIs" dxfId="141" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="cellIs" dxfId="226" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M33">
-    <cfRule type="cellIs" dxfId="225" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" dxfId="223" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34">
+    <cfRule type="cellIs" dxfId="138" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="222" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
-    <cfRule type="cellIs" dxfId="221" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" dxfId="219" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37">
-    <cfRule type="cellIs" dxfId="217" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36">
+    <cfRule type="cellIs" dxfId="135" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37">
+    <cfRule type="cellIs" dxfId="134" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="cellIs" dxfId="216" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
-    <cfRule type="cellIs" dxfId="215" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M39">
-    <cfRule type="cellIs" dxfId="213" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M40">
-    <cfRule type="cellIs" dxfId="211" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M41">
-    <cfRule type="cellIs" dxfId="209" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M42">
-    <cfRule type="cellIs" dxfId="207" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M43">
-    <cfRule type="cellIs" dxfId="205" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M44">
-    <cfRule type="cellIs" dxfId="203" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M45">
-    <cfRule type="cellIs" dxfId="201" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39">
+    <cfRule type="cellIs" dxfId="131" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N40">
+    <cfRule type="cellIs" dxfId="130" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41">
+    <cfRule type="cellIs" dxfId="129" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
+    <cfRule type="cellIs" dxfId="128" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43">
+    <cfRule type="cellIs" dxfId="127" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44">
+    <cfRule type="cellIs" dxfId="126" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N45">
+    <cfRule type="cellIs" dxfId="125" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46">
-    <cfRule type="cellIs" dxfId="200" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M46">
-    <cfRule type="cellIs" dxfId="199" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M47">
-    <cfRule type="cellIs" dxfId="197" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M48">
-    <cfRule type="cellIs" dxfId="195" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M49">
-    <cfRule type="cellIs" dxfId="193" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M50">
-    <cfRule type="cellIs" dxfId="191" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47">
+    <cfRule type="cellIs" dxfId="122" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N48">
+    <cfRule type="cellIs" dxfId="121" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49">
+    <cfRule type="cellIs" dxfId="120" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="cellIs" dxfId="119" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="190" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
-    <cfRule type="cellIs" dxfId="189" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M52">
-    <cfRule type="cellIs" dxfId="187" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53">
-    <cfRule type="cellIs" dxfId="185" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="183" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M55">
-    <cfRule type="cellIs" dxfId="181" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M56">
-    <cfRule type="cellIs" dxfId="179" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="177" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M58">
-    <cfRule type="cellIs" dxfId="175" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M59">
-    <cfRule type="cellIs" dxfId="173" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M60">
-    <cfRule type="cellIs" dxfId="171" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="116" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53">
+    <cfRule type="cellIs" dxfId="115" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="cellIs" dxfId="114" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N55">
+    <cfRule type="cellIs" dxfId="113" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56">
+    <cfRule type="cellIs" dxfId="112" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57">
+    <cfRule type="cellIs" dxfId="111" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58">
+    <cfRule type="cellIs" dxfId="110" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N59">
+    <cfRule type="cellIs" dxfId="109" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="cellIs" dxfId="108" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N61">
-    <cfRule type="cellIs" dxfId="170" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M61">
-    <cfRule type="cellIs" dxfId="169" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M62">
-    <cfRule type="cellIs" dxfId="167" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M63">
-    <cfRule type="cellIs" dxfId="165" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M64">
-    <cfRule type="cellIs" dxfId="163" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M65">
-    <cfRule type="cellIs" dxfId="161" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M66">
-    <cfRule type="cellIs" dxfId="159" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M67">
-    <cfRule type="cellIs" dxfId="157" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M68">
-    <cfRule type="cellIs" dxfId="155" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N62">
+    <cfRule type="cellIs" dxfId="105" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N63">
+    <cfRule type="cellIs" dxfId="104" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N64">
+    <cfRule type="cellIs" dxfId="103" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N65">
+    <cfRule type="cellIs" dxfId="102" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N66">
+    <cfRule type="cellIs" dxfId="101" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N67">
+    <cfRule type="cellIs" dxfId="100" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68">
+    <cfRule type="cellIs" dxfId="99" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N69">
-    <cfRule type="cellIs" dxfId="154" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69">
-    <cfRule type="cellIs" dxfId="153" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70">
-    <cfRule type="cellIs" dxfId="151" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M71">
-    <cfRule type="cellIs" dxfId="149" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M72">
-    <cfRule type="cellIs" dxfId="147" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N70">
+    <cfRule type="cellIs" dxfId="96" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N71">
+    <cfRule type="cellIs" dxfId="95" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="cellIs" dxfId="94" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73">
-    <cfRule type="cellIs" dxfId="146" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M73">
-    <cfRule type="cellIs" dxfId="145" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74">
-    <cfRule type="cellIs" dxfId="144" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M74">
-    <cfRule type="cellIs" dxfId="143" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M75">
-    <cfRule type="cellIs" dxfId="141" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N75">
+    <cfRule type="cellIs" dxfId="89" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="cellIs" dxfId="140" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M76">
-    <cfRule type="cellIs" dxfId="139" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M77">
-    <cfRule type="cellIs" dxfId="137" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M78">
-    <cfRule type="cellIs" dxfId="135" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M79">
-    <cfRule type="cellIs" dxfId="133" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M80">
-    <cfRule type="cellIs" dxfId="131" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M81">
-    <cfRule type="cellIs" dxfId="129" priority="160" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M82">
-    <cfRule type="cellIs" dxfId="127" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N77">
+    <cfRule type="cellIs" dxfId="86" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N78">
+    <cfRule type="cellIs" dxfId="85" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N79">
+    <cfRule type="cellIs" dxfId="84" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N80">
+    <cfRule type="cellIs" dxfId="83" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N81">
+    <cfRule type="cellIs" dxfId="82" priority="160" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
+    <cfRule type="cellIs" dxfId="81" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N83">
-    <cfRule type="cellIs" dxfId="126" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M83">
-    <cfRule type="cellIs" dxfId="125" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M84">
-    <cfRule type="cellIs" dxfId="123" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M85">
-    <cfRule type="cellIs" dxfId="121" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M86">
-    <cfRule type="cellIs" dxfId="119" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M87">
-    <cfRule type="cellIs" dxfId="117" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M88">
-    <cfRule type="cellIs" dxfId="115" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M89">
-    <cfRule type="cellIs" dxfId="113" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M90">
-    <cfRule type="cellIs" dxfId="111" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M91">
-    <cfRule type="cellIs" dxfId="109" priority="180" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M92">
-    <cfRule type="cellIs" dxfId="107" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M93">
-    <cfRule type="cellIs" dxfId="105" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="164" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N84">
+    <cfRule type="cellIs" dxfId="78" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85">
+    <cfRule type="cellIs" dxfId="77" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N86">
+    <cfRule type="cellIs" dxfId="76" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N87">
+    <cfRule type="cellIs" dxfId="75" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N88">
+    <cfRule type="cellIs" dxfId="74" priority="174" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89">
+    <cfRule type="cellIs" dxfId="73" priority="176" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90">
+    <cfRule type="cellIs" dxfId="72" priority="178" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N91">
+    <cfRule type="cellIs" dxfId="71" priority="180" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="cellIs" dxfId="70" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N93">
+    <cfRule type="cellIs" dxfId="69" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N94">
-    <cfRule type="cellIs" dxfId="104" priority="185" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M94">
-    <cfRule type="cellIs" dxfId="103" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N95">
-    <cfRule type="cellIs" dxfId="102" priority="187" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M95">
-    <cfRule type="cellIs" dxfId="101" priority="188" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M96">
-    <cfRule type="cellIs" dxfId="99" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="188" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N96">
+    <cfRule type="cellIs" dxfId="64" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N97">
-    <cfRule type="cellIs" dxfId="98" priority="191" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M97">
-    <cfRule type="cellIs" dxfId="97" priority="192" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M98">
-    <cfRule type="cellIs" dxfId="95" priority="194" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M99">
-    <cfRule type="cellIs" dxfId="93" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="192" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N98">
+    <cfRule type="cellIs" dxfId="61" priority="194" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N99">
+    <cfRule type="cellIs" dxfId="60" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N100">
-    <cfRule type="cellIs" dxfId="92" priority="197" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M100">
-    <cfRule type="cellIs" dxfId="91" priority="198" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M101">
-    <cfRule type="cellIs" dxfId="89" priority="200" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M102">
-    <cfRule type="cellIs" dxfId="87" priority="202" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M103">
-    <cfRule type="cellIs" dxfId="85" priority="204" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M104">
-    <cfRule type="cellIs" dxfId="83" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="198" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N101">
+    <cfRule type="cellIs" dxfId="57" priority="200" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N102">
+    <cfRule type="cellIs" dxfId="56" priority="202" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N103">
+    <cfRule type="cellIs" dxfId="55" priority="204" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N104">
+    <cfRule type="cellIs" dxfId="54" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105">
-    <cfRule type="cellIs" dxfId="82" priority="207" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M105">
-    <cfRule type="cellIs" dxfId="81" priority="208" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="208" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N106">
-    <cfRule type="cellIs" dxfId="80" priority="209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M106">
-    <cfRule type="cellIs" dxfId="79" priority="210" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M107">
-    <cfRule type="cellIs" dxfId="77" priority="212" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M108">
-    <cfRule type="cellIs" dxfId="75" priority="214" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M109">
-    <cfRule type="cellIs" dxfId="73" priority="216" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M110">
-    <cfRule type="cellIs" dxfId="71" priority="218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="cellIs" dxfId="49" priority="212" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N108">
+    <cfRule type="cellIs" dxfId="48" priority="214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="cellIs" dxfId="47" priority="216" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N110">
+    <cfRule type="cellIs" dxfId="46" priority="218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N111">
-    <cfRule type="cellIs" dxfId="70" priority="219" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M111">
-    <cfRule type="cellIs" dxfId="69" priority="220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M112">
-    <cfRule type="cellIs" dxfId="67" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="220" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N112">
+    <cfRule type="cellIs" dxfId="43" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N113">
-    <cfRule type="cellIs" dxfId="66" priority="223" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M113">
-    <cfRule type="cellIs" dxfId="65" priority="224" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M114">
-    <cfRule type="cellIs" dxfId="63" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="224" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N114">
+    <cfRule type="cellIs" dxfId="40" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N115">
-    <cfRule type="cellIs" dxfId="62" priority="227" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M115">
-    <cfRule type="cellIs" dxfId="61" priority="228" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M116">
-    <cfRule type="cellIs" dxfId="59" priority="230" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="228" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N116">
+    <cfRule type="cellIs" dxfId="37" priority="230" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N117">
-    <cfRule type="cellIs" dxfId="58" priority="231" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M117">
-    <cfRule type="cellIs" dxfId="57" priority="232" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="232" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N118">
-    <cfRule type="cellIs" dxfId="56" priority="233" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M118">
-    <cfRule type="cellIs" dxfId="55" priority="234" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M119">
-    <cfRule type="cellIs" dxfId="53" priority="236" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M120">
-    <cfRule type="cellIs" dxfId="51" priority="238" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M121">
-    <cfRule type="cellIs" dxfId="49" priority="240" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M122">
-    <cfRule type="cellIs" dxfId="47" priority="242" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M123">
-    <cfRule type="cellIs" dxfId="45" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="234" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N119">
+    <cfRule type="cellIs" dxfId="32" priority="236" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N120">
+    <cfRule type="cellIs" dxfId="31" priority="238" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N121">
+    <cfRule type="cellIs" dxfId="30" priority="240" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N122">
+    <cfRule type="cellIs" dxfId="29" priority="242" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N123">
+    <cfRule type="cellIs" dxfId="28" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N124">
-    <cfRule type="cellIs" dxfId="44" priority="245" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M124">
-    <cfRule type="cellIs" dxfId="43" priority="246" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M125">
-    <cfRule type="cellIs" dxfId="41" priority="248" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M126">
-    <cfRule type="cellIs" dxfId="39" priority="250" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="246" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N125">
+    <cfRule type="cellIs" dxfId="25" priority="248" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N126">
+    <cfRule type="cellIs" dxfId="24" priority="250" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N127">
-    <cfRule type="cellIs" dxfId="38" priority="251" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M127">
-    <cfRule type="cellIs" dxfId="37" priority="252" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M128">
-    <cfRule type="cellIs" dxfId="35" priority="254" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M129">
-    <cfRule type="cellIs" dxfId="33" priority="256" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="252" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N128">
+    <cfRule type="cellIs" dxfId="21" priority="254" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N129">
+    <cfRule type="cellIs" dxfId="20" priority="256" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N130">
-    <cfRule type="cellIs" dxfId="32" priority="257" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M130">
-    <cfRule type="cellIs" dxfId="31" priority="258" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M131">
-    <cfRule type="cellIs" dxfId="29" priority="260" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M132">
-    <cfRule type="cellIs" dxfId="27" priority="262" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M133">
-    <cfRule type="cellIs" dxfId="25" priority="264" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M134">
-    <cfRule type="cellIs" dxfId="23" priority="266" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M135">
-    <cfRule type="cellIs" dxfId="21" priority="268" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M136">
-    <cfRule type="cellIs" dxfId="19" priority="270" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M137">
-    <cfRule type="cellIs" dxfId="17" priority="272" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M138">
-    <cfRule type="cellIs" dxfId="15" priority="274" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M139">
-    <cfRule type="cellIs" dxfId="13" priority="276" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M140">
-    <cfRule type="cellIs" dxfId="11" priority="278" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M141">
-    <cfRule type="cellIs" dxfId="9" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="258" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N131">
+    <cfRule type="cellIs" dxfId="17" priority="260" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N132">
+    <cfRule type="cellIs" dxfId="16" priority="262" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N133">
+    <cfRule type="cellIs" dxfId="15" priority="264" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N134">
+    <cfRule type="cellIs" dxfId="14" priority="266" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N135">
+    <cfRule type="cellIs" dxfId="13" priority="268" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N136">
+    <cfRule type="cellIs" dxfId="12" priority="270" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N137">
+    <cfRule type="cellIs" dxfId="11" priority="272" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N138">
+    <cfRule type="cellIs" dxfId="10" priority="274" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N139">
+    <cfRule type="cellIs" dxfId="9" priority="276" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N140">
+    <cfRule type="cellIs" dxfId="8" priority="278" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N141">
+    <cfRule type="cellIs" dxfId="7" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N142">
-    <cfRule type="cellIs" dxfId="8" priority="281" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M142">
-    <cfRule type="cellIs" dxfId="7" priority="282" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M143">
-    <cfRule type="cellIs" dxfId="5" priority="284" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M144">
+    <cfRule type="cellIs" dxfId="5" priority="282" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N143">
+    <cfRule type="cellIs" dxfId="4" priority="284" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N144">
     <cfRule type="cellIs" dxfId="3" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M145">
-    <cfRule type="cellIs" dxfId="1" priority="288" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="N145">
+    <cfRule type="cellIs" dxfId="2" priority="288" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
